--- a/Datasets/corr_data.xlsx
+++ b/Datasets/corr_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/U Groningen/Regressions II/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2B9971-D8DB-994A-AF8A-049A7CF1AD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451FC09E-5B44-6243-BCDE-22626B608951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="27500" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
     <t>obesity</t>
   </si>
   <si>
-    <t>ldl</t>
-  </si>
-  <si>
     <t>tchol</t>
-  </si>
-  <si>
-    <t>hdl cholesterol</t>
-  </si>
-  <si>
-    <t>heart attack</t>
   </si>
   <si>
     <t>diabetes</t>
@@ -43,10 +34,19 @@
     <t>metabolism</t>
   </si>
   <si>
-    <t>blood pressure</t>
+    <t>inflammation</t>
   </si>
   <si>
-    <t>inflammation</t>
+    <t>hdl_cholesterol</t>
+  </si>
+  <si>
+    <t>ldl_bad_chol</t>
+  </si>
+  <si>
+    <t>heart_attack</t>
+  </si>
+  <si>
+    <t>blood_pressure</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I2813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,28 +446,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
